--- a/public/uploads/RealisasiDariSIPD-null-2025-1.xlsx
+++ b/public/uploads/RealisasiDariSIPD-null-2025-1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT52"/>
+  <dimension ref="A1:AT38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,21 +590,21 @@
         <v>Nilai SP2D</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2" t="str">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C2" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D2" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E2" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F2" t="str">
         <v>01</v>
@@ -619,43 +619,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L2" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N2" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O2" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P2" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q2" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R2" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S2" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T2" t="str">
-        <v>5.1.01.01.01.0001</v>
+        <v>5.1.01.01.06.0001</v>
       </c>
       <c r="U2" t="str">
-        <v>Belanja Gaji Pokok PNS</v>
+        <v>Belanja Tunjangan Beras PNS</v>
       </c>
       <c r="V2" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W2" t="str">
         <v>SPP</v>
@@ -667,35 +667,34 @@
         <v/>
       </c>
       <c r="Z2" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA2" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB2" t="str">
-        <v>94.910.200,00</v>
+        <v>426.264.120,00</v>
       </c>
       <c r="AC2" t="str">
         <v>0,00</v>
       </c>
       <c r="AD2" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE2" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF2" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG2" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH2" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI2" t="str">
-        <v>1.377.775.968,00</v>
+        <v>4.928.587.204,00</v>
       </c>
       <c r="AJ2" t="str">
         <v>Penetapan APBD</v>
@@ -707,45 +706,45 @@
         <v>Murni</v>
       </c>
       <c r="AM2" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN2" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO2" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP2" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ2" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR2" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS2" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT2" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
+    <row r="3">
       <c r="A3" t="str">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C3" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D3" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E3" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F3" t="str">
         <v>01</v>
@@ -760,43 +759,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L3" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N3" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O3" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P3" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q3" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R3" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S3" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T3" t="str">
-        <v>5.1.01.01.09.0001</v>
+        <v>5.1.01.01.07.0001</v>
       </c>
       <c r="U3" t="str">
-        <v>Belanja Iuran Jaminan Kesehatan PNS</v>
+        <v>Belanja Tunjangan PPh/Tunjangan Khusus PNS</v>
       </c>
       <c r="V3" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W3" t="str">
         <v>SPP</v>
@@ -808,35 +807,34 @@
         <v/>
       </c>
       <c r="Z3" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA3" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB3" t="str">
-        <v>4.759.118,00</v>
+        <v>33.190.974,00</v>
       </c>
       <c r="AC3" t="str">
         <v>0,00</v>
       </c>
       <c r="AD3" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE3" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF3" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG3" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH3" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI3" t="str">
-        <v>100.461.864,00</v>
+        <v>1.552.509.302,00</v>
       </c>
       <c r="AJ3" t="str">
         <v>Penetapan APBD</v>
@@ -848,45 +846,45 @@
         <v>Murni</v>
       </c>
       <c r="AM3" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN3" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO3" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP3" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ3" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR3" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS3" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT3" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
+    <row r="4">
       <c r="A4" t="str">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C4" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D4" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E4" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F4" t="str">
         <v>01</v>
@@ -901,43 +899,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L4" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N4" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O4" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P4" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q4" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R4" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S4" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T4" t="str">
-        <v>5.1.01.01.08.0001</v>
+        <v>5.1.01.01.09.0001</v>
       </c>
       <c r="U4" t="str">
-        <v>Belanja Pembulatan Gaji PNS</v>
+        <v>Belanja Iuran Jaminan Kesehatan PNS</v>
       </c>
       <c r="V4" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W4" t="str">
         <v>SPP</v>
@@ -949,35 +947,34 @@
         <v/>
       </c>
       <c r="Z4" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA4" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA4" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB4" t="str">
-        <v>1.342,00</v>
+        <v>433.641.758,00</v>
       </c>
       <c r="AC4" t="str">
         <v>0,00</v>
       </c>
       <c r="AD4" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE4" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF4" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG4" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH4" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI4" t="str">
-        <v>441.048,00</v>
+        <v>4.994.878.316,00</v>
       </c>
       <c r="AJ4" t="str">
         <v>Penetapan APBD</v>
@@ -989,45 +986,45 @@
         <v>Murni</v>
       </c>
       <c r="AM4" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN4" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO4" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP4" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ4" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR4" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS4" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT4" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
+    <row r="5">
       <c r="A5" t="str">
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C5" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D5" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E5" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F5" t="str">
         <v>01</v>
@@ -1042,43 +1039,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L5" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N5" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O5" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P5" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q5" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R5" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S5" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T5" t="str">
-        <v>5.1.01.01.07.0001</v>
+        <v>5.1.01.01.01.0001</v>
       </c>
       <c r="U5" t="str">
-        <v>Belanja Tunjangan PPh/Tunjangan Khusus PNS</v>
+        <v>Belanja Gaji Pokok PNS</v>
       </c>
       <c r="V5" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W5" t="str">
         <v>SPP</v>
@@ -1090,35 +1087,34 @@
         <v/>
       </c>
       <c r="Z5" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA5" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB5" t="str">
-        <v>207.108,00</v>
+        <v>9.223.074.300,00</v>
       </c>
       <c r="AC5" t="str">
         <v>0,00</v>
       </c>
       <c r="AD5" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE5" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF5" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG5" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH5" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI5" t="str">
-        <v>98.000.004,00</v>
+        <v>106.276.519.154,00</v>
       </c>
       <c r="AJ5" t="str">
         <v>Penetapan APBD</v>
@@ -1130,45 +1126,45 @@
         <v>Murni</v>
       </c>
       <c r="AM5" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN5" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO5" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP5" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ5" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR5" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS5" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT5" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="6" xml:space="preserve">
+    <row r="6">
       <c r="A6" t="str">
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C6" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D6" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E6" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F6" t="str">
         <v>01</v>
@@ -1183,43 +1179,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J6" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L6" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N6" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O6" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P6" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q6" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R6" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S6" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T6" t="str">
-        <v>5.1.01.01.06.0001</v>
+        <v>5.1.01.01.08.0001</v>
       </c>
       <c r="U6" t="str">
-        <v>Belanja Tunjangan Beras PNS</v>
+        <v>Belanja Pembulatan Gaji PNS</v>
       </c>
       <c r="V6" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W6" t="str">
         <v>SPP</v>
@@ -1231,35 +1227,34 @@
         <v/>
       </c>
       <c r="Z6" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA6" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB6" t="str">
-        <v>5.214.240,00</v>
+        <v>102.577,00</v>
       </c>
       <c r="AC6" t="str">
         <v>0,00</v>
       </c>
       <c r="AD6" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE6" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF6" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG6" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH6" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI6" t="str">
-        <v>74.013.240,00</v>
+        <v>1.194.289,00</v>
       </c>
       <c r="AJ6" t="str">
         <v>Penetapan APBD</v>
@@ -1271,45 +1266,45 @@
         <v>Murni</v>
       </c>
       <c r="AM6" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN6" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO6" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP6" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ6" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR6" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS6" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT6" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="7" xml:space="preserve">
+    <row r="7">
       <c r="A7" t="str">
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C7" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D7" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E7" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F7" t="str">
         <v>01</v>
@@ -1324,43 +1319,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J7" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L7" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N7" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O7" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P7" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q7" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R7" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S7" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T7" t="str">
-        <v>5.1.01.01.05.0001</v>
+        <v>5.1.01.01.02.0001</v>
       </c>
       <c r="U7" t="str">
-        <v>Belanja Tunjangan Fungsional Umum PNS</v>
+        <v>Belanja Tunjangan Keluarga PNS</v>
       </c>
       <c r="V7" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W7" t="str">
         <v>SPP</v>
@@ -1372,35 +1367,34 @@
         <v/>
       </c>
       <c r="Z7" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA7" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA7" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB7" t="str">
-        <v>1.110.000,00</v>
+        <v>842.425.166,00</v>
       </c>
       <c r="AC7" t="str">
         <v>0,00</v>
       </c>
       <c r="AD7" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE7" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF7" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG7" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH7" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI7" t="str">
-        <v>18.129.996,00</v>
+        <v>9.730.921.758,00</v>
       </c>
       <c r="AJ7" t="str">
         <v>Penetapan APBD</v>
@@ -1412,45 +1406,45 @@
         <v>Murni</v>
       </c>
       <c r="AM7" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN7" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO7" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP7" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ7" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR7" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS7" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT7" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="8" xml:space="preserve">
+    <row r="8">
       <c r="A8" t="str">
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C8" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D8" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E8" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F8" t="str">
         <v>01</v>
@@ -1465,43 +1459,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J8" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L8" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N8" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O8" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P8" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q8" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R8" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S8" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T8" t="str">
-        <v>5.1.01.01.04.0001</v>
+        <v>5.1.01.01.03.0001</v>
       </c>
       <c r="U8" t="str">
-        <v>Belanja Tunjangan Fungsional PNS</v>
+        <v>Belanja Tunjangan Jabatan PNS</v>
       </c>
       <c r="V8" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W8" t="str">
         <v>SPP</v>
@@ -1513,35 +1507,34 @@
         <v/>
       </c>
       <c r="Z8" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA8" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA8" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB8" t="str">
-        <v>1.880.000,00</v>
+        <v>12.995.000,00</v>
       </c>
       <c r="AC8" t="str">
         <v>0,00</v>
       </c>
       <c r="AD8" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE8" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF8" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG8" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH8" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI8" t="str">
-        <v>68.999.916,00</v>
+        <v>141.027.370,00</v>
       </c>
       <c r="AJ8" t="str">
         <v>Penetapan APBD</v>
@@ -1553,45 +1546,45 @@
         <v>Murni</v>
       </c>
       <c r="AM8" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN8" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO8" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP8" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ8" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR8" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS8" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT8" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="9" xml:space="preserve">
+    <row r="9">
       <c r="A9" t="str">
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C9" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D9" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E9" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F9" t="str">
         <v>01</v>
@@ -1606,43 +1599,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J9" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L9" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N9" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O9" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P9" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q9" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R9" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S9" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T9" t="str">
-        <v>5.1.01.01.03.0001</v>
+        <v>5.1.01.01.04.0001</v>
       </c>
       <c r="U9" t="str">
-        <v>Belanja Tunjangan Jabatan PNS</v>
+        <v>Belanja Tunjangan Fungsional PNS</v>
       </c>
       <c r="V9" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W9" t="str">
         <v>SPP</v>
@@ -1654,35 +1647,34 @@
         <v/>
       </c>
       <c r="Z9" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA9" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB9" t="str">
-        <v>12.165.000,00</v>
+        <v>752.109.000,00</v>
       </c>
       <c r="AC9" t="str">
         <v>0,00</v>
       </c>
       <c r="AD9" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE9" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF9" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG9" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH9" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI9" t="str">
-        <v>182.910.000,00</v>
+        <v>8.592.327.218,00</v>
       </c>
       <c r="AJ9" t="str">
         <v>Penetapan APBD</v>
@@ -1694,45 +1686,45 @@
         <v>Murni</v>
       </c>
       <c r="AM9" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN9" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO9" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP9" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ9" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR9" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS9" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT9" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="10" xml:space="preserve">
+    <row r="10">
       <c r="A10" t="str">
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C10" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D10" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E10" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F10" t="str">
         <v>01</v>
@@ -1747,43 +1739,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J10" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L10" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N10" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O10" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P10" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q10" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R10" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S10" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T10" t="str">
-        <v>5.1.01.01.02.0001</v>
+        <v>5.1.01.01.05.0001</v>
       </c>
       <c r="U10" t="str">
-        <v>Belanja Tunjangan Keluarga PNS</v>
+        <v>Belanja Tunjangan Fungsional Umum PNS</v>
       </c>
       <c r="V10" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W10" t="str">
         <v>SPP</v>
@@ -1795,35 +1787,34 @@
         <v/>
       </c>
       <c r="Z10" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA10" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PNS (24+16+32=72 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA10" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PNS (2.119 + 1.542 + 2.225 = 5.886 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB10" t="str">
-        <v>8.912.732,00</v>
+        <v>10.440.000,00</v>
       </c>
       <c r="AC10" t="str">
         <v>0,00</v>
       </c>
       <c r="AD10" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE10" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF10" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG10" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH10" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI10" t="str">
-        <v>123.838.740,00</v>
+        <v>131.151.656,00</v>
       </c>
       <c r="AJ10" t="str">
         <v>Penetapan APBD</v>
@@ -1835,45 +1826,45 @@
         <v>Murni</v>
       </c>
       <c r="AM10" t="str">
-        <v>16.10/02.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN10" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO10" t="str">
-        <v>16.10/03.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP10" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ10" t="str">
-        <v>16.10/04.0/000003/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000001/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR10" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS10" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT10" t="str">
-        <v>129.159.740,00</v>
+        <v>11.734.242.895,00</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
+    <row r="11">
       <c r="A11" t="str">
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C11" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D11" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E11" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F11" t="str">
         <v>01</v>
@@ -1888,43 +1879,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J11" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L11" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N11" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O11" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P11" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q11" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R11" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S11" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T11" t="str">
-        <v>5.1.01.01.06.0002</v>
+        <v>5.1.01.01.01.0002</v>
       </c>
       <c r="U11" t="str">
-        <v>Belanja Tunjangan Beras PPPK</v>
+        <v>Belanja Gaji Pokok PPPK</v>
       </c>
       <c r="V11" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W11" t="str">
         <v>SPP</v>
@@ -1936,35 +1927,34 @@
         <v/>
       </c>
       <c r="Z11" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA11" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PPPK (8+7+9=24 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA11" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PPPK (1.325 + 899 + 1.351 = 3.575 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB11" t="str">
-        <v>1.738.080,00</v>
+        <v>4.270.789.200,00</v>
       </c>
       <c r="AC11" t="str">
         <v>0,00</v>
       </c>
       <c r="AD11" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE11" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF11" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG11" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH11" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI11" t="str">
-        <v>21.841.872,00</v>
+        <v>58.462.115.664,00</v>
       </c>
       <c r="AJ11" t="str">
         <v>Penetapan APBD</v>
@@ -1976,45 +1966,45 @@
         <v>Murni</v>
       </c>
       <c r="AM11" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN11" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO11" t="str">
-        <v>16.10/03.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP11" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ11" t="str">
-        <v>16.10/04.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR11" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS11" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT11" t="str">
-        <v>30.815.271,00</v>
+        <v>5.348.031.012,00</v>
       </c>
     </row>
-    <row r="12" xml:space="preserve">
+    <row r="12">
       <c r="A12" t="str">
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C12" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D12" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E12" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F12" t="str">
         <v>01</v>
@@ -2029,43 +2019,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J12" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L12" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N12" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O12" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P12" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q12" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R12" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S12" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T12" t="str">
-        <v>5.1.01.01.05.0002</v>
+        <v>5.1.01.01.02.0002</v>
       </c>
       <c r="U12" t="str">
-        <v>Belanja Tunjangan Fungsional Umum PPPK</v>
+        <v>Belanja Tunjangan Keluarga PPPK</v>
       </c>
       <c r="V12" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W12" t="str">
         <v>SPP</v>
@@ -2077,35 +2067,34 @@
         <v/>
       </c>
       <c r="Z12" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA12" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PPPK (8+7+9=24 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PPPK (1.325 + 899 + 1.351 = 3.575 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB12" t="str">
-        <v>1.455.000,00</v>
+        <v>376.166.568,00</v>
       </c>
       <c r="AC12" t="str">
         <v>0,00</v>
       </c>
       <c r="AD12" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE12" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF12" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG12" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH12" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI12" t="str">
-        <v>17.460.000,00</v>
+        <v>5.763.540.600,00</v>
       </c>
       <c r="AJ12" t="str">
         <v>Penetapan APBD</v>
@@ -2117,45 +2106,45 @@
         <v>Murni</v>
       </c>
       <c r="AM12" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN12" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO12" t="str">
-        <v>16.10/03.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP12" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ12" t="str">
-        <v>16.10/04.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR12" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS12" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT12" t="str">
-        <v>30.815.271,00</v>
+        <v>5.348.031.012,00</v>
       </c>
     </row>
-    <row r="13" xml:space="preserve">
+    <row r="13">
       <c r="A13" t="str">
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C13" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D13" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E13" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F13" t="str">
         <v>01</v>
@@ -2170,43 +2159,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J13" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L13" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N13" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O13" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P13" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q13" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R13" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S13" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T13" t="str">
-        <v>5.1.01.01.02.0002</v>
+        <v>5.1.01.01.05.0002</v>
       </c>
       <c r="U13" t="str">
-        <v>Belanja Tunjangan Keluarga PPPK</v>
+        <v>Belanja Tunjangan Fungsional Umum PPPK</v>
       </c>
       <c r="V13" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W13" t="str">
         <v>SPP</v>
@@ -2218,35 +2207,34 @@
         <v/>
       </c>
       <c r="Z13" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA13" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PPPK (8+7+9=24 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PPPK (1.325 + 899 + 1.351 = 3.575 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB13" t="str">
-        <v>2.598.496,00</v>
+        <v>245.865.000,00</v>
       </c>
       <c r="AC13" t="str">
         <v>0,00</v>
       </c>
       <c r="AD13" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE13" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF13" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG13" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH13" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI13" t="str">
-        <v>23.419.296,00</v>
+        <v>3.370.360.878,00</v>
       </c>
       <c r="AJ13" t="str">
         <v>Penetapan APBD</v>
@@ -2258,45 +2246,45 @@
         <v>Murni</v>
       </c>
       <c r="AM13" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN13" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO13" t="str">
-        <v>16.10/03.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP13" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ13" t="str">
-        <v>16.10/04.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR13" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS13" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT13" t="str">
-        <v>30.815.271,00</v>
+        <v>5.348.031.012,00</v>
       </c>
     </row>
-    <row r="14" xml:space="preserve">
+    <row r="14">
       <c r="A14" t="str">
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C14" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D14" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E14" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F14" t="str">
         <v>01</v>
@@ -2311,43 +2299,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J14" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L14" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N14" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O14" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P14" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q14" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R14" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S14" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T14" t="str">
-        <v>5.1.01.01.01.0002</v>
+        <v>5.1.01.01.06.0002</v>
       </c>
       <c r="U14" t="str">
-        <v>Belanja Gaji Pokok PPPK</v>
+        <v>Belanja Tunjangan Beras PPPK</v>
       </c>
       <c r="V14" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W14" t="str">
         <v>SPP</v>
@@ -2359,35 +2347,34 @@
         <v/>
       </c>
       <c r="Z14" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA14" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PPPK (8+7+9=24 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA14" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PPPK (1.325 + 899 + 1.351 = 3.575 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB14" t="str">
-        <v>23.904.800,00</v>
+        <v>259.408.440,00</v>
       </c>
       <c r="AC14" t="str">
         <v>0,00</v>
       </c>
       <c r="AD14" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE14" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF14" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG14" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH14" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI14" t="str">
-        <v>298.292.628,00</v>
+        <v>3.908.132.232,00</v>
       </c>
       <c r="AJ14" t="str">
         <v>Penetapan APBD</v>
@@ -2399,45 +2386,45 @@
         <v>Murni</v>
       </c>
       <c r="AM14" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN14" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO14" t="str">
-        <v>16.10/03.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP14" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ14" t="str">
-        <v>16.10/04.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR14" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS14" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT14" t="str">
-        <v>30.815.271,00</v>
+        <v>5.348.031.012,00</v>
       </c>
     </row>
-    <row r="15" xml:space="preserve">
+    <row r="15">
       <c r="A15" t="str">
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C15" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D15" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E15" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F15" t="str">
         <v>01</v>
@@ -2452,43 +2439,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J15" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L15" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N15" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O15" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P15" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q15" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R15" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S15" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T15" t="str">
-        <v>5.1.01.01.09.0002</v>
+        <v>5.1.01.01.08.0002</v>
       </c>
       <c r="U15" t="str">
-        <v>Belanja Iuran Jaminan Kesehatan PPPK</v>
+        <v>Belanja Pembulatan Gaji PPPK</v>
       </c>
       <c r="V15" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W15" t="str">
         <v>SPP</v>
@@ -2500,35 +2487,34 @@
         <v/>
       </c>
       <c r="Z15" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA15" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PPPK (8+7+9=24 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA15" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PPPK (1.325 + 899 + 1.351 = 3.575 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB15" t="str">
-        <v>1.118.330,00</v>
+        <v>89.129,00</v>
       </c>
       <c r="AC15" t="str">
         <v>0,00</v>
       </c>
       <c r="AD15" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE15" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF15" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG15" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH15" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI15" t="str">
-        <v>14.248.200,00</v>
+        <v>1.280.629,00</v>
       </c>
       <c r="AJ15" t="str">
         <v>Penetapan APBD</v>
@@ -2540,45 +2526,45 @@
         <v>Murni</v>
       </c>
       <c r="AM15" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN15" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO15" t="str">
-        <v>16.10/03.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP15" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ15" t="str">
-        <v>16.10/04.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR15" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS15" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT15" t="str">
-        <v>30.815.271,00</v>
+        <v>5.348.031.012,00</v>
       </c>
     </row>
-    <row r="16" xml:space="preserve">
+    <row r="16">
       <c r="A16" t="str">
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C16" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D16" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E16" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F16" t="str">
         <v>01</v>
@@ -2593,43 +2579,43 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J16" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L16" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N16" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O16" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P16" t="str">
-        <v>2.12.01.2.02</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q16" t="str">
         <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R16" t="str">
-        <v>2.12.01.2.02.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S16" t="str">
         <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T16" t="str">
-        <v>5.1.01.01.08.0002</v>
+        <v>5.1.01.01.09.0002</v>
       </c>
       <c r="U16" t="str">
-        <v>Belanja Pembulatan Gaji PPPK</v>
+        <v>Belanja Iuran Jaminan Kesehatan PPPK</v>
       </c>
       <c r="V16" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W16" t="str">
         <v>SPP</v>
@@ -2641,35 +2627,34 @@
         <v/>
       </c>
       <c r="Z16" t="str">
-        <v>1 Februari 2025</v>
-      </c>
-      <c r="AA16" t="str" xml:space="preserve">
-        <v xml:space="preserve">PEMBAYARAN GAJI BULAN FEBRUARI 2025 DINAS KEPENDUDUKAN DAN PENCATATAN SIPIL KAB. OGAN ILIR PPPK (8+7+9=24 JIWA)
-</v>
+        <v>8 Januari 2025</v>
+      </c>
+      <c r="AA16" t="str">
+        <v>PEMBAYARAN GAJI DAN TUNJANGAN LAINNYA BULAN JANUARI 2025 PPPK (1.325 + 899 + 1.351 = 3.575 JIWA) DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR</v>
       </c>
       <c r="AB16" t="str">
-        <v>565,00</v>
+        <v>195.712.675,00</v>
       </c>
       <c r="AC16" t="str">
         <v>0,00</v>
       </c>
       <c r="AD16" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE16" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF16" t="str">
-        <v>23 Januari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AG16" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH16" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI16" t="str">
-        <v>108.204,00</v>
+        <v>2.703.838.200,00</v>
       </c>
       <c r="AJ16" t="str">
         <v>Penetapan APBD</v>
@@ -2681,28 +2666,28 @@
         <v>Murni</v>
       </c>
       <c r="AM16" t="str">
-        <v>16.10/02.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/02.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN16" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO16" t="str">
-        <v>16.10/03.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/03.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP16" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ16" t="str">
-        <v>16.10/04.0/000004/LS/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/04.0/000002/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR16" t="str">
-        <v>1 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS16" t="str">
-        <v>1 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT16" t="str">
-        <v>30.815.271,00</v>
+        <v>5.348.031.012,00</v>
       </c>
     </row>
     <row r="17">
@@ -2710,16 +2695,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C17" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D17" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E17" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F17" t="str">
         <v>01</v>
@@ -2734,82 +2719,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J17" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L17" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N17" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O17" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P17" t="str">
-        <v>2.12.01.2.09</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q17" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R17" t="str">
-        <v>2.12.01.2.09.0010</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S17" t="str">
-        <v>Pemeliharaan/Rehabilitasi Sarana dan Prasarana Gedung Kantor atau Bangunan Lainnya</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T17" t="str">
-        <v>5.1.02.03.02.0405</v>
+        <v>5.1.01.01.01.0001</v>
       </c>
       <c r="U17" t="str">
-        <v>Belanja Pemeliharaan Komputer-Komputer Unit-Personal Computer</v>
+        <v>Belanja Gaji Pokok PNS</v>
       </c>
       <c r="V17" t="str">
-        <v>16.10/06.0/000001/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W17" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X17" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y17" t="str">
         <v/>
       </c>
       <c r="Z17" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA17" t="str">
-        <v>Belanja Pemeliharaan Komputer-Komputer Unit-Personal Computer Kegiatan Pemeliharaan/Rehabilitas Sarana dan Prasarana Gedung Kantor atau Bangunan Lainnya TA. 2025</v>
+        <v>PEMBAYARAN GAJI SUSULAN BULAN JANUARI 2025 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (3 + 2 + 3 = 8 JIWA)</v>
       </c>
       <c r="AB17" t="str">
-        <v>1.132.846,00</v>
+        <v>10.358.200,00</v>
       </c>
       <c r="AC17" t="str">
         <v>0,00</v>
       </c>
       <c r="AD17" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE17" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF17" t="str">
-        <v>11 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG17" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH17" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI17" t="str">
-        <v>14.000.000,00</v>
+        <v>106.276.519.154,00</v>
       </c>
       <c r="AJ17" t="str">
         <v>Penetapan APBD</v>
@@ -2821,28 +2806,28 @@
         <v>Murni</v>
       </c>
       <c r="AM17" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN17" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO17" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP17" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ17" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000003/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR17" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS17" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT17" t="str">
-        <v>84.700.000,00</v>
+        <v>13.182.904,00</v>
       </c>
     </row>
     <row r="18">
@@ -2850,16 +2835,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C18" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D18" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E18" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F18" t="str">
         <v>01</v>
@@ -2874,82 +2859,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J18" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L18" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N18" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O18" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P18" t="str">
-        <v>2.12.01.2.06</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q18" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R18" t="str">
-        <v>2.12.01.2.06.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S18" t="str">
-        <v>Penyediaan Komponen Instalasi Listrik/Penerangan Bangunan Kantor</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T18" t="str">
-        <v>5.1.02.01.01.0031</v>
+        <v>5.1.01.01.02.0001</v>
       </c>
       <c r="U18" t="str">
-        <v>Belanja Alat/Bahan untuk Kegiatan Kantor-Alat Listrik</v>
+        <v>Belanja Tunjangan Keluarga PNS</v>
       </c>
       <c r="V18" t="str">
-        <v>16.10/06.0/000002/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W18" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X18" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y18" t="str">
         <v/>
       </c>
       <c r="Z18" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA18" t="str">
-        <v>Belanja Alat/Bahan untuk Kegiatan Kantor-Alat Listrik Kegiatan Penyediaan Komponen Instalasi Listrik/Penerangan Bangunan Kantor TA. 2025</v>
+        <v>PEMBAYARAN GAJI SUSULAN BULAN JANUARI 2025 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (3 + 2 + 3 = 8 JIWA)</v>
       </c>
       <c r="AB18" t="str">
-        <v>1.980.000,00</v>
+        <v>921.448,00</v>
       </c>
       <c r="AC18" t="str">
         <v>0,00</v>
       </c>
       <c r="AD18" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE18" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF18" t="str">
-        <v>11 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG18" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH18" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI18" t="str">
-        <v>4.956.500,00</v>
+        <v>9.730.921.758,00</v>
       </c>
       <c r="AJ18" t="str">
         <v>Penetapan APBD</v>
@@ -2961,28 +2946,28 @@
         <v>Murni</v>
       </c>
       <c r="AM18" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN18" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO18" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP18" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ18" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000003/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR18" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS18" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT18" t="str">
-        <v>84.700.000,00</v>
+        <v>13.182.904,00</v>
       </c>
     </row>
     <row r="19">
@@ -2990,16 +2975,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C19" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D19" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E19" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F19" t="str">
         <v>01</v>
@@ -3014,82 +2999,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J19" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L19" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N19" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O19" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P19" t="str">
-        <v>2.12.01.2.06</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q19" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R19" t="str">
-        <v>2.12.01.2.06.0008</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S19" t="str">
-        <v>Fasilitasi Kunjungan Tamu</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T19" t="str">
-        <v>5.1.02.01.01.0053</v>
+        <v>5.1.01.01.04.0001</v>
       </c>
       <c r="U19" t="str">
-        <v>Belanja Makanan dan Minuman Jamuan Tamu</v>
+        <v>Belanja Tunjangan Fungsional PNS</v>
       </c>
       <c r="V19" t="str">
-        <v>16.10/06.0/000003/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W19" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X19" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y19" t="str">
         <v/>
       </c>
       <c r="Z19" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA19" t="str">
-        <v>Belanja Makanan dan Minuman Jamuan Tamu (Air Galon) Kegiatan Fasilitasi Kunjungan Tamu TA. 2025</v>
+        <v>PEMBAYARAN GAJI SUSULAN BULAN JANUARI 2025 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (3 + 2 + 3 = 8 JIWA)</v>
       </c>
       <c r="AB19" t="str">
-        <v>350.000,00</v>
+        <v>654.000,00</v>
       </c>
       <c r="AC19" t="str">
         <v>0,00</v>
       </c>
       <c r="AD19" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE19" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF19" t="str">
-        <v>11 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG19" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH19" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI19" t="str">
-        <v>2.500.000,00</v>
+        <v>8.592.327.218,00</v>
       </c>
       <c r="AJ19" t="str">
         <v>Penetapan APBD</v>
@@ -3101,28 +3086,28 @@
         <v>Murni</v>
       </c>
       <c r="AM19" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN19" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO19" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP19" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ19" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000003/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR19" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS19" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT19" t="str">
-        <v>84.700.000,00</v>
+        <v>13.182.904,00</v>
       </c>
     </row>
     <row r="20">
@@ -3130,16 +3115,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C20" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D20" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E20" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F20" t="str">
         <v>01</v>
@@ -3154,82 +3139,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J20" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L20" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N20" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O20" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P20" t="str">
-        <v>2.12.01.2.09</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q20" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R20" t="str">
-        <v>2.12.01.2.09.0010</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S20" t="str">
-        <v>Pemeliharaan/Rehabilitasi Sarana dan Prasarana Gedung Kantor atau Bangunan Lainnya</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T20" t="str">
-        <v>5.1.02.03.02.0411</v>
+        <v>5.1.01.01.05.0001</v>
       </c>
       <c r="U20" t="str">
-        <v>Belanja Pemeliharaan Komputer-Peralatan Komputer-Peralatan Komputer Lainnya</v>
+        <v>Belanja Tunjangan Fungsional Umum PNS</v>
       </c>
       <c r="V20" t="str">
-        <v>16.10/06.0/000004/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W20" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X20" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y20" t="str">
         <v/>
       </c>
       <c r="Z20" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA20" t="str">
-        <v>Belanja Pemeliharaan Komputer-Peralatan Komputer-Peralatan Komputer Lainnya Kegiatan Pemeliharaan/Rehabilitasi Sarana dan Prasarana Gedung Kantor atau Bangunan Lainnya TA. 2025</v>
+        <v>PEMBAYARAN GAJI SUSULAN BULAN JANUARI 2025 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (3 + 2 + 3 = 8 JIWA)</v>
       </c>
       <c r="AB20" t="str">
-        <v>525.112,00</v>
+        <v>185.000,00</v>
       </c>
       <c r="AC20" t="str">
         <v>0,00</v>
       </c>
       <c r="AD20" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE20" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF20" t="str">
-        <v>11 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG20" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH20" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI20" t="str">
-        <v>14.000.000,00</v>
+        <v>131.151.656,00</v>
       </c>
       <c r="AJ20" t="str">
         <v>Penetapan APBD</v>
@@ -3241,28 +3226,28 @@
         <v>Murni</v>
       </c>
       <c r="AM20" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN20" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO20" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP20" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ20" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000003/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR20" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS20" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT20" t="str">
-        <v>84.700.000,00</v>
+        <v>13.182.904,00</v>
       </c>
     </row>
     <row r="21">
@@ -3270,16 +3255,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C21" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D21" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E21" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F21" t="str">
         <v>01</v>
@@ -3294,82 +3279,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J21" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L21" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N21" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O21" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P21" t="str">
-        <v>2.12.01.2.06</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q21" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R21" t="str">
-        <v>2.12.01.2.06.0005</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S21" t="str">
-        <v>Penyediaan Barang Cetakan dan Penggandaan</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T21" t="str">
-        <v>5.1.02.01.01.0025</v>
+        <v>5.1.01.01.06.0001</v>
       </c>
       <c r="U21" t="str">
-        <v>Belanja Alat/Bahan untuk Kegiatan Kantor- Kertas dan Cover</v>
+        <v>Belanja Tunjangan Beras PNS</v>
       </c>
       <c r="V21" t="str">
-        <v>16.10/06.0/000005/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W21" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X21" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y21" t="str">
         <v/>
       </c>
       <c r="Z21" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA21" t="str">
-        <v>Belanja Alat/Bahan untuk Kegiatan Kantor- Kertas dan Cover (Fotocopy) Kegiatan Penyediaan Barang Cetakan dan Penggandaan TA. 2025</v>
+        <v>PEMBAYARAN GAJI SUSULAN BULAN JANUARI 2025 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (3 + 2 + 3 = 8 JIWA)</v>
       </c>
       <c r="AB21" t="str">
-        <v>300.000,00</v>
+        <v>579.360,00</v>
       </c>
       <c r="AC21" t="str">
         <v>0,00</v>
       </c>
       <c r="AD21" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE21" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF21" t="str">
-        <v>11 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG21" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH21" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI21" t="str">
-        <v>2.050.000,00</v>
+        <v>4.928.587.204,00</v>
       </c>
       <c r="AJ21" t="str">
         <v>Penetapan APBD</v>
@@ -3381,28 +3366,28 @@
         <v>Murni</v>
       </c>
       <c r="AM21" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN21" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO21" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP21" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ21" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000003/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR21" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS21" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT21" t="str">
-        <v>84.700.000,00</v>
+        <v>13.182.904,00</v>
       </c>
     </row>
     <row r="22">
@@ -3410,16 +3395,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C22" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D22" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E22" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F22" t="str">
         <v>01</v>
@@ -3434,82 +3419,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J22" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L22" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N22" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O22" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P22" t="str">
-        <v>2.12.01.2.06</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q22" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R22" t="str">
-        <v>2.12.01.2.06.0006</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S22" t="str">
-        <v>Penyediaan Bahan Bacaan dan Peraturan Perundang-undangan</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T22" t="str">
-        <v>5.1.02.02.01.0055</v>
+        <v>5.1.01.01.08.0001</v>
       </c>
       <c r="U22" t="str">
-        <v>Belanja Jasa Iklan/Reklame, Film, dan Pemotretan</v>
+        <v>Belanja Pembulatan Gaji PNS</v>
       </c>
       <c r="V22" t="str">
-        <v>16.10/06.0/000006/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W22" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X22" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y22" t="str">
         <v/>
       </c>
       <c r="Z22" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA22" t="str">
-        <v>Belanja Jasa Iklan/Reklame, Film, dan Pemotretan (Sewa Karangan Bunga) Kegiatan Penyediaan Bahan Bacaan dan Peraturan Perundang-Undangan TA. 2025</v>
+        <v>PEMBAYARAN GAJI SUSULAN BULAN JANUARI 2025 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (3 + 2 + 3 = 8 JIWA)</v>
       </c>
       <c r="AB22" t="str">
-        <v>500.000,00</v>
+        <v>150,00</v>
       </c>
       <c r="AC22" t="str">
         <v>0,00</v>
       </c>
       <c r="AD22" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE22" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF22" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG22" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH22" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI22" t="str">
-        <v>2.500.000,00</v>
+        <v>1.194.289,00</v>
       </c>
       <c r="AJ22" t="str">
         <v>Penetapan APBD</v>
@@ -3521,28 +3506,28 @@
         <v>Murni</v>
       </c>
       <c r="AM22" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN22" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO22" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP22" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ22" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000003/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR22" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS22" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT22" t="str">
-        <v>84.700.000,00</v>
+        <v>13.182.904,00</v>
       </c>
     </row>
     <row r="23">
@@ -3550,16 +3535,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C23" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D23" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E23" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F23" t="str">
         <v>01</v>
@@ -3574,82 +3559,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J23" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L23" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N23" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O23" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P23" t="str">
-        <v>2.12.01.2.09</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q23" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R23" t="str">
-        <v>2.12.01.2.09.0002</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S23" t="str">
-        <v>Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, Pajak dan Perizinan Kendaraan Dinas Operasional atau Lapangan</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T23" t="str">
-        <v>5.1.02.03.02.0035</v>
+        <v>5.1.01.01.09.0001</v>
       </c>
       <c r="U23" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan</v>
+        <v>Belanja Iuran Jaminan Kesehatan PNS</v>
       </c>
       <c r="V23" t="str">
-        <v>16.10/06.0/000007/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W23" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X23" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y23" t="str">
         <v/>
       </c>
       <c r="Z23" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA23" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan ( Suku Cadang BG 1031 TZ) Kegiatan Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak dan Perizinan Kendaraan Dinas Operasional atau Lapangan TA. 2025</v>
+        <v>PEMBAYARAN GAJI SUSULAN BULAN JANUARI 2025 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (3 + 2 + 3 = 8 JIWA)</v>
       </c>
       <c r="AB23" t="str">
-        <v>1.300.000,00</v>
+        <v>484.746,00</v>
       </c>
       <c r="AC23" t="str">
         <v>0,00</v>
       </c>
       <c r="AD23" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE23" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF23" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG23" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH23" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI23" t="str">
-        <v>54.645.000,00</v>
+        <v>4.994.878.316,00</v>
       </c>
       <c r="AJ23" t="str">
         <v>Penetapan APBD</v>
@@ -3661,28 +3646,28 @@
         <v>Murni</v>
       </c>
       <c r="AM23" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN23" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO23" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP23" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ23" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000003/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR23" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS23" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT23" t="str">
-        <v>84.700.000,00</v>
+        <v>13.182.904,00</v>
       </c>
     </row>
     <row r="24">
@@ -3690,16 +3675,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C24" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D24" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E24" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F24" t="str">
         <v>01</v>
@@ -3714,82 +3699,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J24" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L24" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N24" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O24" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P24" t="str">
-        <v>2.12.01.2.08</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q24" t="str">
-        <v>Penyediaan Jasa Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R24" t="str">
-        <v>2.12.01.2.08.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S24" t="str">
-        <v>Penyediaan Jasa Surat Menyurat</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T24" t="str">
-        <v>5.1.02.02.01.0042</v>
+        <v>5.1.01.01.01.0001</v>
       </c>
       <c r="U24" t="str">
-        <v>Belanja Jasa Pelaksanaan Transaksi Keuangan</v>
+        <v>Belanja Gaji Pokok PNS</v>
       </c>
       <c r="V24" t="str">
-        <v>16.10/06.0/000008/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W24" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X24" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y24" t="str">
         <v/>
       </c>
       <c r="Z24" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA24" t="str">
-        <v>Belanja Jasa Pelaksanaan Transaksi Keuangan (Buku Cek) Kegiatan Penyediaan Jasa Surat Menyurat TA. 2025</v>
+        <v>PEMBAYARAN KEKURANGAN GAJI BULAN DESEMBER 2024 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (2 + 2 + 3 = 7 JIWA)</v>
       </c>
       <c r="AB24" t="str">
-        <v>120.000,00</v>
+        <v>7.071.200,00</v>
       </c>
       <c r="AC24" t="str">
         <v>0,00</v>
       </c>
       <c r="AD24" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE24" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF24" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG24" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH24" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI24" t="str">
-        <v>2.200.000,00</v>
+        <v>106.276.519.154,00</v>
       </c>
       <c r="AJ24" t="str">
         <v>Penetapan APBD</v>
@@ -3801,28 +3786,28 @@
         <v>Murni</v>
       </c>
       <c r="AM24" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN24" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO24" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP24" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ24" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR24" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS24" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT24" t="str">
-        <v>84.700.000,00</v>
+        <v>9.351.843,00</v>
       </c>
     </row>
     <row r="25">
@@ -3830,16 +3815,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C25" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D25" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E25" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F25" t="str">
         <v>01</v>
@@ -3854,82 +3839,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J25" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L25" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N25" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O25" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P25" t="str">
-        <v>2.12.01.2.09</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q25" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R25" t="str">
-        <v>2.12.01.2.09.0002</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S25" t="str">
-        <v>Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, Pajak dan Perizinan Kendaraan Dinas Operasional atau Lapangan</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T25" t="str">
-        <v>5.1.02.03.02.0035</v>
+        <v>5.1.01.01.02.0001</v>
       </c>
       <c r="U25" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan</v>
+        <v>Belanja Tunjangan Keluarga PNS</v>
       </c>
       <c r="V25" t="str">
-        <v>16.10/06.0/000009/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W25" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X25" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y25" t="str">
         <v/>
       </c>
       <c r="Z25" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA25" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan ( BBM/Minyak BG 1031 TZ) Kegiatan Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak dan Perizinan Kendaraan Dinas Operasional atau Lapangan TA. 2025</v>
+        <v>PEMBAYARAN KEKURANGAN GAJI BULAN DESEMBER 2024 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (2 + 2 + 3 = 7 JIWA)</v>
       </c>
       <c r="AB25" t="str">
-        <v>2.596.464,00</v>
+        <v>921.448,00</v>
       </c>
       <c r="AC25" t="str">
         <v>0,00</v>
       </c>
       <c r="AD25" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE25" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF25" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG25" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH25" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI25" t="str">
-        <v>54.645.000,00</v>
+        <v>9.730.921.758,00</v>
       </c>
       <c r="AJ25" t="str">
         <v>Penetapan APBD</v>
@@ -3941,28 +3926,28 @@
         <v>Murni</v>
       </c>
       <c r="AM25" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN25" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO25" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP25" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ25" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR25" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS25" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT25" t="str">
-        <v>84.700.000,00</v>
+        <v>9.351.843,00</v>
       </c>
     </row>
     <row r="26">
@@ -3970,16 +3955,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C26" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D26" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E26" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F26" t="str">
         <v>01</v>
@@ -3994,82 +3979,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J26" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L26" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N26" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O26" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P26" t="str">
-        <v>2.12.01.2.09</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q26" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R26" t="str">
-        <v>2.12.01.2.09.0002</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S26" t="str">
-        <v>Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, Pajak dan Perizinan Kendaraan Dinas Operasional atau Lapangan</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T26" t="str">
-        <v>5.1.02.03.02.0035</v>
+        <v>5.1.01.01.04.0001</v>
       </c>
       <c r="U26" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan</v>
+        <v>Belanja Tunjangan Fungsional PNS</v>
       </c>
       <c r="V26" t="str">
-        <v>16.10/06.0/000010/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W26" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X26" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y26" t="str">
         <v/>
       </c>
       <c r="Z26" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA26" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan ( BBM/Minyak BG 8094 TZ) Kegiatan Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak dan Perizinan Kendaraan Dinas Operasional atau Lapangan TA. 2025</v>
+        <v>PEMBAYARAN KEKURANGAN GAJI BULAN DESEMBER 2024 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (2 + 2 + 3 = 7 JIWA)</v>
       </c>
       <c r="AB26" t="str">
-        <v>3.601.917,00</v>
+        <v>327.000,00</v>
       </c>
       <c r="AC26" t="str">
         <v>0,00</v>
       </c>
       <c r="AD26" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE26" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF26" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG26" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH26" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI26" t="str">
-        <v>54.645.000,00</v>
+        <v>8.592.327.218,00</v>
       </c>
       <c r="AJ26" t="str">
         <v>Penetapan APBD</v>
@@ -4081,28 +4066,28 @@
         <v>Murni</v>
       </c>
       <c r="AM26" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN26" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO26" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP26" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ26" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR26" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS26" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT26" t="str">
-        <v>84.700.000,00</v>
+        <v>9.351.843,00</v>
       </c>
     </row>
     <row r="27">
@@ -4110,16 +4095,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C27" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D27" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E27" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F27" t="str">
         <v>01</v>
@@ -4134,82 +4119,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J27" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L27" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N27" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O27" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P27" t="str">
-        <v>2.12.01.2.09</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q27" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R27" t="str">
-        <v>2.12.01.2.09.0001</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S27" t="str">
-        <v>Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak Kendaraan Perorangan Dinas atau Kendaraan Dinas Jabatan</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T27" t="str">
-        <v>5.1.02.03.02.0035</v>
+        <v>5.1.01.01.05.0001</v>
       </c>
       <c r="U27" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan</v>
+        <v>Belanja Tunjangan Fungsional Umum PNS</v>
       </c>
       <c r="V27" t="str">
-        <v>16.10/06.0/000011/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W27" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X27" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y27" t="str">
         <v/>
       </c>
       <c r="Z27" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA27" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan (BBM/Minyak BG 23 TZ) Kegiatan Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak dan Perizinan Kendaraan Dinas Jabatan TA. 2025</v>
+        <v>PEMBAYARAN KEKURANGAN GAJI BULAN DESEMBER 2024 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (2 + 2 + 3 = 7 JIWA)</v>
       </c>
       <c r="AB27" t="str">
-        <v>4.048.818,00</v>
+        <v>185.000,00</v>
       </c>
       <c r="AC27" t="str">
         <v>0,00</v>
       </c>
       <c r="AD27" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE27" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF27" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG27" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH27" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI27" t="str">
-        <v>20.250.000,00</v>
+        <v>131.151.656,00</v>
       </c>
       <c r="AJ27" t="str">
         <v>Penetapan APBD</v>
@@ -4221,28 +4206,28 @@
         <v>Murni</v>
       </c>
       <c r="AM27" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN27" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO27" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP27" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ27" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR27" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS27" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT27" t="str">
-        <v>84.700.000,00</v>
+        <v>9.351.843,00</v>
       </c>
     </row>
     <row r="28">
@@ -4250,16 +4235,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C28" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D28" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E28" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F28" t="str">
         <v>01</v>
@@ -4274,82 +4259,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J28" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L28" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N28" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O28" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P28" t="str">
-        <v>2.12.01.2.09</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q28" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R28" t="str">
-        <v>2.12.01.2.09.0002</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S28" t="str">
-        <v>Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, Pajak dan Perizinan Kendaraan Dinas Operasional atau Lapangan</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T28" t="str">
-        <v>5.1.02.03.02.0035</v>
+        <v>5.1.01.01.06.0001</v>
       </c>
       <c r="U28" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan</v>
+        <v>Belanja Tunjangan Beras PNS</v>
       </c>
       <c r="V28" t="str">
-        <v>16.10/06.0/000012/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W28" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X28" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y28" t="str">
         <v/>
       </c>
       <c r="Z28" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA28" t="str">
-        <v xml:space="preserve">Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan ( BBm/Minyak BG 9112TZ) Kegiatan Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak dan Perizinan Kendaraan Dinas Operasional atau Lapangan TA. 2025 </v>
+        <v>PEMBAYARAN KEKURANGAN GAJI BULAN DESEMBER 2024 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (2 + 2 + 3 = 7 JIWA)</v>
       </c>
       <c r="AB28" t="str">
-        <v>2.860.000,00</v>
+        <v>506.940,00</v>
       </c>
       <c r="AC28" t="str">
         <v>0,00</v>
       </c>
       <c r="AD28" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE28" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF28" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG28" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH28" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI28" t="str">
-        <v>54.645.000,00</v>
+        <v>4.928.587.204,00</v>
       </c>
       <c r="AJ28" t="str">
         <v>Penetapan APBD</v>
@@ -4361,28 +4346,28 @@
         <v>Murni</v>
       </c>
       <c r="AM28" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN28" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO28" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP28" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ28" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR28" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS28" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT28" t="str">
-        <v>84.700.000,00</v>
+        <v>9.351.843,00</v>
       </c>
     </row>
     <row r="29">
@@ -4390,16 +4375,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C29" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D29" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E29" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F29" t="str">
         <v>01</v>
@@ -4408,88 +4393,88 @@
         <v>PELAYANAN UMUM</v>
       </c>
       <c r="H29" t="str">
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="I29" t="str">
-        <v>Pelayanan Umum</v>
+        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J29" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L29" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N29" t="str">
-        <v>2.12.02</v>
+        <v>1.01.01</v>
       </c>
       <c r="O29" t="str">
-        <v>PROGRAM PENDAFTARAN PENDUDUK</v>
+        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P29" t="str">
-        <v>2.12.02.2.01</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q29" t="str">
-        <v>Pelayanan Pendaftaran Penduduk</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R29" t="str">
-        <v>2.12.02.2.01.0004</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S29" t="str">
-        <v>Peningkatan Pelayanan Pendaftaran Penduduk</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T29" t="str">
-        <v>5.1.02.02.01.0028</v>
+        <v>5.1.01.01.08.0001</v>
       </c>
       <c r="U29" t="str">
-        <v>Belanja Jasa Tenaga Pelayanan Umum</v>
+        <v>Belanja Pembulatan Gaji PNS</v>
       </c>
       <c r="V29" t="str">
-        <v>16.10/06.0/000013/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W29" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X29" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y29" t="str">
         <v/>
       </c>
       <c r="Z29" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA29" t="str">
-        <v>Belanja Jasa Tenaga Pelayanan umum (uang lelah penjaga stand pameran) Kegiatan Peningkatan Pelayanan Pendaftaran Penduduk TA. 2025</v>
+        <v>PEMBAYARAN KEKURANGAN GAJI BULAN DESEMBER 2024 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (2 + 2 + 3 = 7 JIWA)</v>
       </c>
       <c r="AB29" t="str">
-        <v>9.000.000,00</v>
+        <v>70,00</v>
       </c>
       <c r="AC29" t="str">
         <v>0,00</v>
       </c>
       <c r="AD29" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE29" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF29" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG29" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH29" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI29" t="str">
-        <v>9.000.000,00</v>
+        <v>1.194.289,00</v>
       </c>
       <c r="AJ29" t="str">
         <v>Penetapan APBD</v>
@@ -4501,28 +4486,28 @@
         <v>Murni</v>
       </c>
       <c r="AM29" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN29" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO29" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP29" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ29" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR29" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS29" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT29" t="str">
-        <v>84.700.000,00</v>
+        <v>9.351.843,00</v>
       </c>
     </row>
     <row r="30">
@@ -4530,16 +4515,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C30" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D30" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E30" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F30" t="str">
         <v>01</v>
@@ -4548,88 +4533,88 @@
         <v>PELAYANAN UMUM</v>
       </c>
       <c r="H30" t="str">
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="I30" t="str">
-        <v>Pelayanan Umum</v>
+        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J30" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L30" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N30" t="str">
-        <v>2.12.02</v>
+        <v>1.01.01</v>
       </c>
       <c r="O30" t="str">
-        <v>PROGRAM PENDAFTARAN PENDUDUK</v>
+        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P30" t="str">
-        <v>2.12.02.2.01</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q30" t="str">
-        <v>Pelayanan Pendaftaran Penduduk</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R30" t="str">
-        <v>2.12.02.2.01.0004</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S30" t="str">
-        <v>Peningkatan Pelayanan Pendaftaran Penduduk</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T30" t="str">
-        <v>5.1.02.01.01.0052</v>
+        <v>5.1.01.01.09.0001</v>
       </c>
       <c r="U30" t="str">
-        <v>Belanja Makanan dan Minuman Rapat</v>
+        <v>Belanja Iuran Jaminan Kesehatan PNS</v>
       </c>
       <c r="V30" t="str">
-        <v>16.10/06.0/000014/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W30" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X30" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y30" t="str">
         <v/>
       </c>
       <c r="Z30" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA30" t="str">
-        <v>Belanja Makanan dan Minuman Rapat (snack penjaga stand pameran) Kegiatan Peningkatan Pelayanan Pendaftaran Penduduk TA. 2025</v>
+        <v>PEMBAYARAN KEKURANGAN GAJI BULAN DESEMBER 2024 AN. DEDI SOEKANA, S.PD NIP. 198612262011011006 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (2 + 2 + 3 = 7 JIWA)</v>
       </c>
       <c r="AB30" t="str">
-        <v>3.400.000,00</v>
+        <v>340.185,00</v>
       </c>
       <c r="AC30" t="str">
         <v>0,00</v>
       </c>
       <c r="AD30" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE30" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF30" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG30" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH30" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI30" t="str">
-        <v>10.600.000,00</v>
+        <v>4.994.878.316,00</v>
       </c>
       <c r="AJ30" t="str">
         <v>Penetapan APBD</v>
@@ -4641,28 +4626,28 @@
         <v>Murni</v>
       </c>
       <c r="AM30" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN30" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO30" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP30" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ30" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000004/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR30" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS30" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT30" t="str">
-        <v>84.700.000,00</v>
+        <v>9.351.843,00</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4655,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C31" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D31" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E31" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F31" t="str">
         <v>01</v>
@@ -4688,88 +4673,88 @@
         <v>PELAYANAN UMUM</v>
       </c>
       <c r="H31" t="str">
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="I31" t="str">
-        <v>Pelayanan Umum</v>
+        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J31" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L31" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N31" t="str">
-        <v>2.12.02</v>
+        <v>1.01.01</v>
       </c>
       <c r="O31" t="str">
-        <v>PROGRAM PENDAFTARAN PENDUDUK</v>
+        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P31" t="str">
-        <v>2.12.02.2.01</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q31" t="str">
-        <v>Pelayanan Pendaftaran Penduduk</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R31" t="str">
-        <v>2.12.02.2.01.0004</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S31" t="str">
-        <v>Peningkatan Pelayanan Pendaftaran Penduduk</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T31" t="str">
-        <v>5.1.02.01.01.0052</v>
+        <v>5.1.01.01.01.0001</v>
       </c>
       <c r="U31" t="str">
-        <v>Belanja Makanan dan Minuman Rapat</v>
+        <v>Belanja Gaji Pokok PNS</v>
       </c>
       <c r="V31" t="str">
-        <v>16.10/06.0/000015/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W31" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X31" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y31" t="str">
         <v/>
       </c>
       <c r="Z31" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA31" t="str">
-        <v>Belanja Makanan dan Minuman Rapat (nasi kotak penjaga stand pameran) Kegiatan Peningkatan Pelayanan Pendaftaran Penduduk TA. 2025</v>
+        <v>PEMBAYARAN GAJI TERUSAN BULAN JANUARI 2025 AN. SLAMET NIP. 196508191988041002 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (4 + 2 + 2 = 8 JIWA)</v>
       </c>
       <c r="AB31" t="str">
-        <v>4.500.000,00</v>
+        <v>20.310.400,00</v>
       </c>
       <c r="AC31" t="str">
         <v>0,00</v>
       </c>
       <c r="AD31" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE31" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF31" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG31" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH31" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI31" t="str">
-        <v>10.600.000,00</v>
+        <v>106.276.519.154,00</v>
       </c>
       <c r="AJ31" t="str">
         <v>Penetapan APBD</v>
@@ -4781,28 +4766,28 @@
         <v>Murni</v>
       </c>
       <c r="AM31" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN31" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO31" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP31" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ31" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR31" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS31" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT31" t="str">
-        <v>84.700.000,00</v>
+        <v>24.758.961,00</v>
       </c>
     </row>
     <row r="32">
@@ -4810,16 +4795,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C32" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D32" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E32" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F32" t="str">
         <v>01</v>
@@ -4828,88 +4813,88 @@
         <v>PELAYANAN UMUM</v>
       </c>
       <c r="H32" t="str">
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="I32" t="str">
-        <v>Pelayanan Umum</v>
+        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J32" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L32" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N32" t="str">
-        <v>2.12.02</v>
+        <v>1.01.01</v>
       </c>
       <c r="O32" t="str">
-        <v>PROGRAM PENDAFTARAN PENDUDUK</v>
+        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P32" t="str">
-        <v>2.12.02.2.01</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q32" t="str">
-        <v>Pelayanan Pendaftaran Penduduk</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R32" t="str">
-        <v>2.12.02.2.01.0004</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S32" t="str">
-        <v>Peningkatan Pelayanan Pendaftaran Penduduk</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T32" t="str">
-        <v>5.1.02.01.01.0026</v>
+        <v>5.1.01.01.02.0001</v>
       </c>
       <c r="U32" t="str">
-        <v>Belanja Alat/Bahan untuk Kegiatan Kantor- Bahan Cetak</v>
+        <v>Belanja Tunjangan Keluarga PNS</v>
       </c>
       <c r="V32" t="str">
-        <v>16.10/06.0/000016/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W32" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X32" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y32" t="str">
         <v/>
       </c>
       <c r="Z32" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA32" t="str">
-        <v xml:space="preserve">Belanja Alat/Bahan untuk Kegiatan Kantor- Bahan Cetak (cetak baliho stand pameran) Kegiatan Peningkatan Pelayanan Pendaftaran Penduduk TA. 2025 </v>
+        <v>PEMBAYARAN GAJI TERUSAN BULAN JANUARI 2025 AN. SLAMET NIP. 196508191988041002 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (4 + 2 + 2 = 8 JIWA)</v>
       </c>
       <c r="AB32" t="str">
-        <v>1.350.000,00</v>
+        <v>1.243.808,00</v>
       </c>
       <c r="AC32" t="str">
         <v>0,00</v>
       </c>
       <c r="AD32" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE32" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF32" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG32" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH32" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI32" t="str">
-        <v>3.240.000,00</v>
+        <v>9.730.921.758,00</v>
       </c>
       <c r="AJ32" t="str">
         <v>Penetapan APBD</v>
@@ -4921,28 +4906,28 @@
         <v>Murni</v>
       </c>
       <c r="AM32" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN32" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO32" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP32" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ32" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR32" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS32" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT32" t="str">
-        <v>84.700.000,00</v>
+        <v>24.758.961,00</v>
       </c>
     </row>
     <row r="33">
@@ -4950,16 +4935,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C33" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D33" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E33" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F33" t="str">
         <v>01</v>
@@ -4968,88 +4953,88 @@
         <v>PELAYANAN UMUM</v>
       </c>
       <c r="H33" t="str">
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="I33" t="str">
-        <v>Pelayanan Umum</v>
+        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J33" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L33" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N33" t="str">
-        <v>2.12.02</v>
+        <v>1.01.01</v>
       </c>
       <c r="O33" t="str">
-        <v>PROGRAM PENDAFTARAN PENDUDUK</v>
+        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P33" t="str">
-        <v>2.12.02.2.01</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q33" t="str">
-        <v>Pelayanan Pendaftaran Penduduk</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R33" t="str">
-        <v>2.12.02.2.01.0004</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S33" t="str">
-        <v>Peningkatan Pelayanan Pendaftaran Penduduk</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T33" t="str">
-        <v>5.1.02.02.01.0063</v>
+        <v>5.1.01.01.04.0001</v>
       </c>
       <c r="U33" t="str">
-        <v>Belanja Kawat/Faksimili/Internet/TV Berlangganan</v>
+        <v>Belanja Tunjangan Fungsional PNS</v>
       </c>
       <c r="V33" t="str">
-        <v>16.10/06.0/000017/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W33" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X33" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y33" t="str">
         <v/>
       </c>
       <c r="Z33" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA33" t="str">
-        <v>Belanja Kawat/Faksimili/Internet/TV Berlangganan (biaya pemasangan wifi internet 2 titik) Kegiatan Peningkatan Pelayanan Pendaftaran Penduduk TA. 2025</v>
+        <v>PEMBAYARAN GAJI TERUSAN BULAN JANUARI 2025 AN. SLAMET NIP. 196508191988041002 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (4 + 2 + 2 = 8 JIWA)</v>
       </c>
       <c r="AB33" t="str">
-        <v>1.000.000,00</v>
+        <v>1.556.000,00</v>
       </c>
       <c r="AC33" t="str">
         <v>0,00</v>
       </c>
       <c r="AD33" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE33" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF33" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG33" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH33" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI33" t="str">
-        <v>10.300.000,00</v>
+        <v>8.592.327.218,00</v>
       </c>
       <c r="AJ33" t="str">
         <v>Penetapan APBD</v>
@@ -5061,28 +5046,28 @@
         <v>Murni</v>
       </c>
       <c r="AM33" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN33" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO33" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP33" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ33" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR33" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS33" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT33" t="str">
-        <v>84.700.000,00</v>
+        <v>24.758.961,00</v>
       </c>
     </row>
     <row r="34">
@@ -5090,16 +5075,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C34" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D34" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E34" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F34" t="str">
         <v>01</v>
@@ -5108,88 +5093,88 @@
         <v>PELAYANAN UMUM</v>
       </c>
       <c r="H34" t="str">
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="I34" t="str">
-        <v>Pelayanan Umum</v>
+        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J34" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L34" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N34" t="str">
-        <v>2.12.02</v>
+        <v>1.01.01</v>
       </c>
       <c r="O34" t="str">
-        <v>PROGRAM PENDAFTARAN PENDUDUK</v>
+        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P34" t="str">
-        <v>2.12.02.2.01</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q34" t="str">
-        <v>Pelayanan Pendaftaran Penduduk</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R34" t="str">
-        <v>2.12.02.2.01.0004</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S34" t="str">
-        <v>Peningkatan Pelayanan Pendaftaran Penduduk</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T34" t="str">
-        <v>5.1.02.02.05.0036</v>
+        <v>5.1.01.01.06.0001</v>
       </c>
       <c r="U34" t="str">
-        <v>Belanja Sewa Taman</v>
+        <v>Belanja Tunjangan Beras PNS</v>
       </c>
       <c r="V34" t="str">
-        <v>16.10/06.0/000018/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W34" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X34" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y34" t="str">
         <v/>
       </c>
       <c r="Z34" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA34" t="str">
-        <v>Belanja Sewa Taman (sewa taman stand pameran) Kegiatan Peningkatan Pelayanan Pendaftaran Penduduk TA. 2025</v>
+        <v>PEMBAYARAN GAJI TERUSAN BULAN JANUARI 2025 AN. SLAMET NIP. 196508191988041002 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (4 + 2 + 2 = 8 JIWA)</v>
       </c>
       <c r="AB34" t="str">
-        <v>1.800.000,00</v>
+        <v>579.360,00</v>
       </c>
       <c r="AC34" t="str">
         <v>0,00</v>
       </c>
       <c r="AD34" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE34" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF34" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG34" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH34" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI34" t="str">
-        <v>1.800.000,00</v>
+        <v>4.928.587.204,00</v>
       </c>
       <c r="AJ34" t="str">
         <v>Penetapan APBD</v>
@@ -5201,28 +5186,28 @@
         <v>Murni</v>
       </c>
       <c r="AM34" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN34" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO34" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP34" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ34" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR34" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS34" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT34" t="str">
-        <v>84.700.000,00</v>
+        <v>24.758.961,00</v>
       </c>
     </row>
     <row r="35">
@@ -5230,16 +5215,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C35" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D35" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E35" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F35" t="str">
         <v>01</v>
@@ -5248,88 +5233,88 @@
         <v>PELAYANAN UMUM</v>
       </c>
       <c r="H35" t="str">
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="I35" t="str">
-        <v>Pelayanan Umum</v>
+        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J35" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L35" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N35" t="str">
-        <v>2.12.02</v>
+        <v>1.01.01</v>
       </c>
       <c r="O35" t="str">
-        <v>PROGRAM PENDAFTARAN PENDUDUK</v>
+        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P35" t="str">
-        <v>2.12.02.2.01</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q35" t="str">
-        <v>Pelayanan Pendaftaran Penduduk</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R35" t="str">
-        <v>2.12.02.2.01.0004</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S35" t="str">
-        <v>Peningkatan Pelayanan Pendaftaran Penduduk</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T35" t="str">
-        <v>5.1.02.02.04.0034</v>
+        <v>5.1.01.01.07.0001</v>
       </c>
       <c r="U35" t="str">
-        <v>Belanja Sewa Alat Bantu Lainnya</v>
+        <v>Belanja Tunjangan PPh/Tunjangan Khusus PNS</v>
       </c>
       <c r="V35" t="str">
-        <v>16.10/06.0/000019/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W35" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X35" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y35" t="str">
         <v/>
       </c>
       <c r="Z35" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA35" t="str">
-        <v>Belanja Sewa Alat Bantu Lainnya (sewa dekorasi stand pameran ) Kegiatan Peningkatan Pelayanan Pendaftaran Penduduk TA. 2025</v>
+        <v>PEMBAYARAN GAJI TERUSAN BULAN JANUARI 2025 AN. SLAMET NIP. 196508191988041002 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (4 + 2 + 2 = 8 JIWA)</v>
       </c>
       <c r="AB35" t="str">
-        <v>1.000.000,00</v>
+        <v>144.751,00</v>
       </c>
       <c r="AC35" t="str">
         <v>0,00</v>
       </c>
       <c r="AD35" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE35" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF35" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG35" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH35" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI35" t="str">
-        <v>1.000.000,00</v>
+        <v>1.552.509.302,00</v>
       </c>
       <c r="AJ35" t="str">
         <v>Penetapan APBD</v>
@@ -5341,28 +5326,28 @@
         <v>Murni</v>
       </c>
       <c r="AM35" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN35" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO35" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP35" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ35" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR35" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS35" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT35" t="str">
-        <v>84.700.000,00</v>
+        <v>24.758.961,00</v>
       </c>
     </row>
     <row r="36">
@@ -5370,16 +5355,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C36" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D36" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E36" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F36" t="str">
         <v>01</v>
@@ -5388,88 +5373,88 @@
         <v>PELAYANAN UMUM</v>
       </c>
       <c r="H36" t="str">
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="I36" t="str">
-        <v>Pelayanan Umum</v>
+        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J36" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L36" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N36" t="str">
-        <v>2.12.02</v>
+        <v>1.01.01</v>
       </c>
       <c r="O36" t="str">
-        <v>PROGRAM PENDAFTARAN PENDUDUK</v>
+        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P36" t="str">
-        <v>2.12.02.2.01</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q36" t="str">
-        <v>Pelayanan Pendaftaran Penduduk</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R36" t="str">
-        <v>2.12.02.2.01.0004</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S36" t="str">
-        <v>Peningkatan Pelayanan Pendaftaran Penduduk</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T36" t="str">
-        <v>5.1.02.02.01.0042</v>
+        <v>5.1.01.01.08.0001</v>
       </c>
       <c r="U36" t="str">
-        <v>Belanja Jasa Pelaksanaan Transaksi Keuangan</v>
+        <v>Belanja Pembulatan Gaji PNS</v>
       </c>
       <c r="V36" t="str">
-        <v>16.10/06.0/000020/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W36" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X36" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y36" t="str">
         <v/>
       </c>
       <c r="Z36" t="str">
-        <v>5 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA36" t="str">
-        <v>Belanja Jasa Pelaksanaan Transaksi Keuangan (materai) Kegiatan Peningkatan Pelayanan Pendaftaran Penduduk TA. 2025</v>
+        <v>PEMBAYARAN GAJI TERUSAN BULAN JANUARI 2025 AN. SLAMET NIP. 196508191988041002 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (4 + 2 + 2 = 8 JIWA)</v>
       </c>
       <c r="AB36" t="str">
-        <v>300.000,00</v>
+        <v>234,00</v>
       </c>
       <c r="AC36" t="str">
         <v>0,00</v>
       </c>
       <c r="AD36" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE36" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF36" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG36" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH36" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI36" t="str">
-        <v>300.000,00</v>
+        <v>1.194.289,00</v>
       </c>
       <c r="AJ36" t="str">
         <v>Penetapan APBD</v>
@@ -5481,28 +5466,28 @@
         <v>Murni</v>
       </c>
       <c r="AM36" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN36" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO36" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP36" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ36" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR36" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS36" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT36" t="str">
-        <v>84.700.000,00</v>
+        <v>24.758.961,00</v>
       </c>
     </row>
     <row r="37">
@@ -5510,16 +5495,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="C37" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="D37" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v>1.01.2.22.0.00.01.0000</v>
       </c>
       <c r="E37" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v>Dinas Pendidikan dan Kebudayaan</v>
       </c>
       <c r="F37" t="str">
         <v>01</v>
@@ -5534,82 +5519,82 @@
         <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
       </c>
       <c r="J37" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v>URUSAN PEMERINTAHAN WAJIB YANG BERKAITAN DENGAN PELAYANAN DASAR</v>
       </c>
       <c r="L37" t="str">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v>URUSAN PEMERINTAHAN BIDANG PENDIDIKAN</v>
       </c>
       <c r="N37" t="str">
-        <v>2.12.01</v>
+        <v>1.01.01</v>
       </c>
       <c r="O37" t="str">
         <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
       </c>
       <c r="P37" t="str">
-        <v>2.12.01.2.09</v>
+        <v>1.01.01.2.02</v>
       </c>
       <c r="Q37" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v>Administrasi Keuangan Perangkat Daerah</v>
       </c>
       <c r="R37" t="str">
-        <v>2.12.01.2.09.0010</v>
+        <v>1.01.01.2.02.0001</v>
       </c>
       <c r="S37" t="str">
-        <v>Pemeliharaan/Rehabilitasi Sarana dan Prasarana Gedung Kantor atau Bangunan Lainnya</v>
+        <v>Penyediaan Gaji dan Tunjangan ASN</v>
       </c>
       <c r="T37" t="str">
-        <v>5.1.02.03.02.0405</v>
+        <v>5.1.01.01.09.0001</v>
       </c>
       <c r="U37" t="str">
-        <v>Belanja Pemeliharaan Komputer-Komputer Unit-Personal Computer</v>
+        <v>Belanja Iuran Jaminan Kesehatan PNS</v>
       </c>
       <c r="V37" t="str">
-        <v>16.10/06.0/000021/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="W37" t="str">
-        <v>TBP</v>
+        <v>SPP</v>
       </c>
       <c r="X37" t="str">
-        <v>UP</v>
+        <v>LS</v>
       </c>
       <c r="Y37" t="str">
         <v/>
       </c>
       <c r="Z37" t="str">
-        <v>13 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AA37" t="str">
-        <v>Belanja Pemeliharaan Komputer-Komputer Unit-Personal Computer Kegiatan Pemeliharaan/ Rehabilitasi Sarana dan Prasarana Gedung Kantor atau Bangunan Lainnya TA. 2025</v>
+        <v>PEMBAYARAN GAJI TERUSAN BULAN JANUARI 2025 AN. SLAMET NIP. 196508191988041002 DKK DINAS PENDIDIKAN DAN KEBUDAYAAN KABUPATEN OGAN ILIR (4 + 2 + 2 = 8 JIWA)</v>
       </c>
       <c r="AB37" t="str">
-        <v>1.200.000,00</v>
+        <v>924.408,00</v>
       </c>
       <c r="AC37" t="str">
         <v>0,00</v>
       </c>
       <c r="AD37" t="str">
-        <v>198212202006042006</v>
+        <v>197701082008011001</v>
       </c>
       <c r="AE37" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v>Andri Kurniawan, S.Pd</v>
       </c>
       <c r="AF37" t="str">
-        <v>13 Maret 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AG37" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v>16.10/01.0/000001/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AH37" t="str">
         <v>Semester 1</v>
       </c>
       <c r="AI37" t="str">
-        <v>14.000.000,00</v>
+        <v>4.994.878.316,00</v>
       </c>
       <c r="AJ37" t="str">
         <v>Penetapan APBD</v>
@@ -5621,2136 +5606,176 @@
         <v>Murni</v>
       </c>
       <c r="AM37" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/02.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AN37" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AO37" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/03.0/000007/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AP37" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AQ37" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v>16.10/04.0/000005/LS/1.01.2.22.0.00.01.0000/M/1/2025</v>
       </c>
       <c r="AR37" t="str">
-        <v>3 Februari 2025</v>
+        <v>8 Januari 2025</v>
       </c>
       <c r="AS37" t="str">
-        <v>4 Februari 2025</v>
+        <v>9 Januari 2025</v>
       </c>
       <c r="AT37" t="str">
-        <v>84.700.000,00</v>
+        <v>24.758.961,00</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>37</v>
+        <v>Total</v>
       </c>
       <c r="B38" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
+        <v/>
       </c>
       <c r="E38" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
+        <v/>
       </c>
       <c r="F38" t="str">
-        <v>01</v>
+        <v/>
       </c>
       <c r="G38" t="str">
-        <v>PELAYANAN UMUM</v>
+        <v/>
       </c>
       <c r="H38" t="str">
-        <v>04</v>
+        <v/>
       </c>
       <c r="I38" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
+        <v/>
       </c>
       <c r="J38" t="str">
-        <v>2</v>
+        <v/>
       </c>
       <c r="K38" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
+        <v/>
       </c>
       <c r="L38" t="str">
-        <v>2.12</v>
+        <v/>
       </c>
       <c r="M38" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
+        <v/>
       </c>
       <c r="N38" t="str">
-        <v>2.12.01</v>
+        <v/>
       </c>
       <c r="O38" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
+        <v/>
       </c>
       <c r="P38" t="str">
-        <v>2.12.01.2.09</v>
+        <v/>
       </c>
       <c r="Q38" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
+        <v/>
       </c>
       <c r="R38" t="str">
-        <v>2.12.01.2.09.0001</v>
+        <v/>
       </c>
       <c r="S38" t="str">
-        <v>Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak Kendaraan Perorangan Dinas atau Kendaraan Dinas Jabatan</v>
+        <v/>
       </c>
       <c r="T38" t="str">
-        <v>5.1.02.03.02.0035</v>
+        <v/>
       </c>
       <c r="U38" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan</v>
+        <v/>
       </c>
       <c r="V38" t="str">
-        <v>16.10/06.0/000022/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
+        <v/>
       </c>
       <c r="W38" t="str">
-        <v>TBP</v>
+        <v/>
       </c>
       <c r="X38" t="str">
-        <v>UP</v>
+        <v/>
       </c>
       <c r="Y38" t="str">
         <v/>
       </c>
       <c r="Z38" t="str">
-        <v>13 Februari 2025</v>
+        <v/>
       </c>
       <c r="AA38" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan (Suku Cadang BG 23 TZ) Kegiatan Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak Kendaraan Perorangan atau  Kendaraan Dinas Jabatan TA. 2025</v>
+        <v/>
       </c>
       <c r="AB38" t="str">
-        <v>3.882.033,00</v>
+        <v>17.129.567.615,00</v>
       </c>
       <c r="AC38" t="str">
         <v>0,00</v>
       </c>
       <c r="AD38" t="str">
-        <v>198212202006042006</v>
+        <v/>
       </c>
       <c r="AE38" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
+        <v/>
       </c>
       <c r="AF38" t="str">
-        <v>13 Maret 2025</v>
+        <v/>
       </c>
       <c r="AG38" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
+        <v/>
       </c>
       <c r="AH38" t="str">
-        <v>Semester 1</v>
+        <v/>
       </c>
       <c r="AI38" t="str">
-        <v>20.250.000,00</v>
+        <v>615.946.480.901,00</v>
       </c>
       <c r="AJ38" t="str">
-        <v>Penetapan APBD</v>
+        <v/>
       </c>
       <c r="AK38" t="str">
-        <v>Penetapan APBD</v>
+        <v/>
       </c>
       <c r="AL38" t="str">
-        <v>Murni</v>
+        <v/>
       </c>
       <c r="AM38" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v/>
       </c>
       <c r="AN38" t="str">
-        <v>3 Februari 2025</v>
+        <v/>
       </c>
       <c r="AO38" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v/>
       </c>
       <c r="AP38" t="str">
-        <v>3 Februari 2025</v>
+        <v/>
       </c>
       <c r="AQ38" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
+        <v/>
       </c>
       <c r="AR38" t="str">
-        <v>3 Februari 2025</v>
+        <v/>
       </c>
       <c r="AS38" t="str">
-        <v>4 Februari 2025</v>
+        <v/>
       </c>
       <c r="AT38" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D39" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E39" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F39" t="str">
-        <v>01</v>
-      </c>
-      <c r="G39" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H39" t="str">
-        <v>04</v>
-      </c>
-      <c r="I39" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J39" t="str">
-        <v>2</v>
-      </c>
-      <c r="K39" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L39" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M39" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N39" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O39" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P39" t="str">
-        <v>2.12.01.2.05</v>
-      </c>
-      <c r="Q39" t="str">
-        <v>Administrasi Kepegawaian Perangkat Daerah</v>
-      </c>
-      <c r="R39" t="str">
-        <v>2.12.01.2.05.0002</v>
-      </c>
-      <c r="S39" t="str">
-        <v>Pengadaan Pakaian Dinas beserta Atribut Kelengkapannya</v>
-      </c>
-      <c r="T39" t="str">
-        <v>5.1.02.01.01.0074</v>
-      </c>
-      <c r="U39" t="str">
-        <v>Belanja Pakaian Adat Daerah</v>
-      </c>
-      <c r="V39" t="str">
-        <v>16.10/06.0/000023/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W39" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X39" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y39" t="str">
-        <v/>
-      </c>
-      <c r="Z39" t="str">
-        <v>13 Februari 2025</v>
-      </c>
-      <c r="AA39" t="str">
-        <v>Belanja Pakaian Adat Daerah (Pakaian adat pejabat dan kepala OPD) Kegiatan Pengadaan Pakaian Dinas beserta Atribut Kelengkapannya TA. 2025</v>
-      </c>
-      <c r="AB39" t="str">
-        <v>1.150.000,00</v>
-      </c>
-      <c r="AC39" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD39" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE39" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF39" t="str">
-        <v>13 Maret 2025</v>
-      </c>
-      <c r="AG39" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH39" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI39" t="str">
-        <v>3.500.000,00</v>
-      </c>
-      <c r="AJ39" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK39" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL39" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM39" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN39" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO39" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP39" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ39" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR39" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS39" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT39" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D40" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E40" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F40" t="str">
-        <v>01</v>
-      </c>
-      <c r="G40" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H40" t="str">
-        <v>04</v>
-      </c>
-      <c r="I40" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J40" t="str">
-        <v>2</v>
-      </c>
-      <c r="K40" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L40" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M40" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N40" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O40" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P40" t="str">
-        <v>2.12.01.2.09</v>
-      </c>
-      <c r="Q40" t="str">
-        <v>Pemeliharaan Barang Milik Daerah Penunjang Urusan Pemerintahan Daerah</v>
-      </c>
-      <c r="R40" t="str">
-        <v>2.12.01.2.09.0001</v>
-      </c>
-      <c r="S40" t="str">
-        <v>Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak Kendaraan Perorangan Dinas atau Kendaraan Dinas Jabatan</v>
-      </c>
-      <c r="T40" t="str">
-        <v>5.1.02.03.02.0035</v>
-      </c>
-      <c r="U40" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan</v>
-      </c>
-      <c r="V40" t="str">
-        <v>16.10/06.0/000024/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W40" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X40" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y40" t="str">
-        <v/>
-      </c>
-      <c r="Z40" t="str">
-        <v>13 Februari 2025</v>
-      </c>
-      <c r="AA40" t="str">
-        <v>Belanja Pemeliharaan Alat Angkutan-Alat Angkutan Darat Bermotor-Kendaraan Dinas Bermotor Perorangan (Suku Cadang BG 23 TZ) Kegiatan Penyediaan Jasa Pemeliharaan, Biaya Pemeliharaan, dan Pajak Kendaraan Perorangan atau  Kendaraan Dinas Jabatan TA. 2025</v>
-      </c>
-      <c r="AB40" t="str">
-        <v>1.300.000,00</v>
-      </c>
-      <c r="AC40" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD40" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE40" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF40" t="str">
-        <v>13 Maret 2025</v>
-      </c>
-      <c r="AG40" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH40" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI40" t="str">
-        <v>20.250.000,00</v>
-      </c>
-      <c r="AJ40" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK40" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL40" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM40" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN40" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO40" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP40" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ40" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR40" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS40" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT40" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D41" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E41" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F41" t="str">
-        <v>01</v>
-      </c>
-      <c r="G41" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H41" t="str">
-        <v>04</v>
-      </c>
-      <c r="I41" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J41" t="str">
-        <v>2</v>
-      </c>
-      <c r="K41" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L41" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M41" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N41" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O41" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P41" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q41" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R41" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S41" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T41" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U41" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V41" t="str">
-        <v>16.10/06.0/000025/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W41" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X41" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y41" t="str">
-        <v/>
-      </c>
-      <c r="Z41" t="str">
-        <v>13 Februari 2025</v>
-      </c>
-      <c r="AA41" t="str">
-        <v>Belanja Perjalanan Dinas Biasa, Mengikuti Evaluasi kinerja jabatan pimpinan tinggi pratama Kab. Ogan Ilir di Hotel Windham Palembang, tanggal 09 s.d 10 Januari 2025 an. Zaidan, S.Sos.,M.Si Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD TA. 2025</v>
-      </c>
-      <c r="AB41" t="str">
-        <v>1.060.000,00</v>
-      </c>
-      <c r="AC41" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD41" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE41" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF41" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG41" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH41" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI41" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ41" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK41" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL41" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM41" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN41" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO41" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP41" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ41" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR41" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS41" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT41" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>41</v>
-      </c>
-      <c r="B42" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C42" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D42" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E42" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F42" t="str">
-        <v>01</v>
-      </c>
-      <c r="G42" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H42" t="str">
-        <v>04</v>
-      </c>
-      <c r="I42" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J42" t="str">
-        <v>2</v>
-      </c>
-      <c r="K42" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L42" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M42" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N42" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O42" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P42" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q42" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R42" t="str">
-        <v>2.12.01.2.06.0006</v>
-      </c>
-      <c r="S42" t="str">
-        <v>Penyediaan Bahan Bacaan dan Peraturan Perundang-undangan</v>
-      </c>
-      <c r="T42" t="str">
-        <v>5.1.02.02.01.0055</v>
-      </c>
-      <c r="U42" t="str">
-        <v>Belanja Jasa Iklan/Reklame, Film, dan Pemotretan</v>
-      </c>
-      <c r="V42" t="str">
-        <v>16.10/06.0/000026/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W42" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X42" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y42" t="str">
-        <v/>
-      </c>
-      <c r="Z42" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA42" t="str">
-        <v>Belanja Jasa Iklan/Reklame, Film, dan Pemotretan (Sewa karangan bunga) Kegiatan Penyediaan Bahan Bacaan dan Peraturan Perundang-Undangan TA. 2025</v>
-      </c>
-      <c r="AB42" t="str">
-        <v>500.000,00</v>
-      </c>
-      <c r="AC42" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD42" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE42" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF42" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG42" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH42" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI42" t="str">
-        <v>2.500.000,00</v>
-      </c>
-      <c r="AJ42" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK42" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL42" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM42" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN42" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO42" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP42" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ42" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR42" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS42" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT42" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>42</v>
-      </c>
-      <c r="B43" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C43" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D43" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E43" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F43" t="str">
-        <v>01</v>
-      </c>
-      <c r="G43" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H43" t="str">
-        <v>04</v>
-      </c>
-      <c r="I43" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J43" t="str">
-        <v>2</v>
-      </c>
-      <c r="K43" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L43" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M43" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N43" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O43" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P43" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q43" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R43" t="str">
-        <v>2.12.01.2.06.0006</v>
-      </c>
-      <c r="S43" t="str">
-        <v>Penyediaan Bahan Bacaan dan Peraturan Perundang-undangan</v>
-      </c>
-      <c r="T43" t="str">
-        <v>5.1.02.02.01.0062</v>
-      </c>
-      <c r="U43" t="str">
-        <v>Belanja Langganan Jurnal/Surat Kabar/Majalah</v>
-      </c>
-      <c r="V43" t="str">
-        <v>16.10/06.0/000027/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W43" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X43" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y43" t="str">
-        <v/>
-      </c>
-      <c r="Z43" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA43" t="str">
-        <v>Belanja Langganan Jurnal/Surat Kabar/Majalah (Koran) Kegiatan Penyediaan Bahan Bacaan dan Peraturan Perundang-Undangan TA. 2025</v>
-      </c>
-      <c r="AB43" t="str">
-        <v>1.000.000,00</v>
-      </c>
-      <c r="AC43" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD43" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE43" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF43" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG43" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH43" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI43" t="str">
-        <v>4.500.000,00</v>
-      </c>
-      <c r="AJ43" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK43" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL43" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM43" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN43" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO43" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP43" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ43" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR43" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS43" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT43" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>43</v>
-      </c>
-      <c r="B44" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C44" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D44" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E44" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F44" t="str">
-        <v>01</v>
-      </c>
-      <c r="G44" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H44" t="str">
-        <v>04</v>
-      </c>
-      <c r="I44" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J44" t="str">
-        <v>2</v>
-      </c>
-      <c r="K44" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L44" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M44" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N44" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O44" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P44" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q44" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R44" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S44" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T44" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U44" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V44" t="str">
-        <v>16.10/06.0/000028/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W44" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X44" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y44" t="str">
-        <v/>
-      </c>
-      <c r="Z44" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA44" t="str">
-        <v>Belanja Perjalanan Dinas Biasa, Melaksanakan Koordinasi dan Konsultasi di Perwakilan Badan Kependudukan dan Keluarga Berencana Provinsi Sumatera Selatan Palembang, tanggal 17 Februari 2025 an. Husni Rosmiaty, S.Si Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD TA. 2025</v>
-      </c>
-      <c r="AB44" t="str">
-        <v>380.000,00</v>
-      </c>
-      <c r="AC44" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD44" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE44" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF44" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG44" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH44" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI44" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ44" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK44" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL44" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM44" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN44" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO44" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP44" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ44" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR44" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS44" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT44" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>44</v>
-      </c>
-      <c r="B45" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C45" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D45" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E45" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F45" t="str">
-        <v>01</v>
-      </c>
-      <c r="G45" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H45" t="str">
-        <v>04</v>
-      </c>
-      <c r="I45" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J45" t="str">
-        <v>2</v>
-      </c>
-      <c r="K45" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L45" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M45" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N45" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O45" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P45" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q45" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R45" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S45" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T45" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U45" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V45" t="str">
-        <v>16.10/06.0/000029/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W45" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X45" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y45" t="str">
-        <v/>
-      </c>
-      <c r="Z45" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA45" t="str">
-        <v>Belanja Perjalanan Dinas Biasa, Melaksanakan Koordinasi dan Konsultasi di Perwakilan Badan Kependudukan dan Keluarga Berencana Provinsi Sumatera Selatan Palembang, tanggal 17 Februari 2025 an. Leni Darmiyati, S.Sos Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD TA. 2025</v>
-      </c>
-      <c r="AB45" t="str">
-        <v>380.000,00</v>
-      </c>
-      <c r="AC45" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD45" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE45" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF45" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG45" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH45" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI45" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ45" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK45" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL45" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM45" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN45" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO45" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP45" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ45" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR45" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS45" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT45" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>45</v>
-      </c>
-      <c r="B46" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C46" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D46" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E46" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F46" t="str">
-        <v>01</v>
-      </c>
-      <c r="G46" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H46" t="str">
-        <v>04</v>
-      </c>
-      <c r="I46" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J46" t="str">
-        <v>2</v>
-      </c>
-      <c r="K46" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L46" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M46" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N46" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O46" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P46" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q46" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R46" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S46" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T46" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U46" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V46" t="str">
-        <v>16.10/06.0/000030/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W46" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X46" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y46" t="str">
-        <v/>
-      </c>
-      <c r="Z46" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA46" t="str">
-        <v>Belanja Perjalanan Dinas Biasa, Melaksanakan Koordinasi dan Konsultasi ke Badan Pusat Statistik Provinsi Sumatera Selatan, tanggal 17 Februari 2025 an. Yulianti Anggraini, S.Kom Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD TA. 2025</v>
-      </c>
-      <c r="AB46" t="str">
-        <v>580.000,00</v>
-      </c>
-      <c r="AC46" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD46" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE46" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF46" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG46" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH46" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI46" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ46" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK46" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL46" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM46" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN46" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO46" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP46" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ46" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR46" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS46" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT46" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>46</v>
-      </c>
-      <c r="B47" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C47" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D47" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E47" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F47" t="str">
-        <v>01</v>
-      </c>
-      <c r="G47" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H47" t="str">
-        <v>04</v>
-      </c>
-      <c r="I47" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J47" t="str">
-        <v>2</v>
-      </c>
-      <c r="K47" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L47" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M47" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N47" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O47" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P47" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q47" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R47" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S47" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T47" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U47" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V47" t="str">
-        <v>16.10/06.0/000031/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W47" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X47" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y47" t="str">
-        <v/>
-      </c>
-      <c r="Z47" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA47" t="str">
-        <v>Belanja Perjalanan Dinas Biasa, Melaksanakan Koordinasi dan Konsultasi ke Badan Pusat Statistik Provinsi Sumatera Selatan, tanggal 17 Februari 2025 an. Eferika Saputra, A.Md Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD TA. 2025</v>
-      </c>
-      <c r="AB47" t="str">
-        <v>380.000,00</v>
-      </c>
-      <c r="AC47" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD47" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE47" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF47" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG47" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH47" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI47" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ47" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK47" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL47" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM47" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN47" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO47" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP47" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ47" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR47" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS47" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT47" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>47</v>
-      </c>
-      <c r="B48" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C48" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D48" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E48" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F48" t="str">
-        <v>01</v>
-      </c>
-      <c r="G48" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H48" t="str">
-        <v>04</v>
-      </c>
-      <c r="I48" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J48" t="str">
-        <v>2</v>
-      </c>
-      <c r="K48" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L48" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M48" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N48" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O48" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P48" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q48" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R48" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S48" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T48" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U48" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V48" t="str">
-        <v>16.10/06.0/000032/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W48" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X48" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y48" t="str">
-        <v/>
-      </c>
-      <c r="Z48" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA48" t="str">
-        <v>Belanja Perjalanan Dinas Biasa, Melaksanakan Koordinasi dan Konsultasi ke Dinas Kearsipan Provinsi Sumatera Selatan, tanggal 17 Februari 2025 an. Eka Fatriani, S.Kom Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD TA. 2025</v>
-      </c>
-      <c r="AB48" t="str">
-        <v>380.000,00</v>
-      </c>
-      <c r="AC48" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD48" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE48" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF48" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG48" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH48" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI48" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ48" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK48" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL48" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM48" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN48" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO48" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP48" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ48" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR48" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS48" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT48" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>48</v>
-      </c>
-      <c r="B49" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C49" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D49" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E49" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F49" t="str">
-        <v>01</v>
-      </c>
-      <c r="G49" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H49" t="str">
-        <v>04</v>
-      </c>
-      <c r="I49" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J49" t="str">
-        <v>2</v>
-      </c>
-      <c r="K49" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L49" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M49" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N49" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O49" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P49" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q49" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R49" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S49" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T49" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U49" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V49" t="str">
-        <v>16.10/06.0/000033/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W49" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X49" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y49" t="str">
-        <v/>
-      </c>
-      <c r="Z49" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA49" t="str">
-        <v>Belanja Perjalanan Dinas Biasa, Melaksanakan Koordinasi dan Konsultasi ke Dinas Kearsipan Provinsi Sumatera Selatan, tanggal 17 Februari 2025 an. Siami Ningsih, S.IP Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD TA. 2025</v>
-      </c>
-      <c r="AB49" t="str">
-        <v>380.000,00</v>
-      </c>
-      <c r="AC49" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD49" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE49" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF49" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG49" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH49" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI49" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ49" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK49" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL49" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM49" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN49" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO49" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP49" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ49" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR49" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS49" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT49" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>49</v>
-      </c>
-      <c r="B50" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C50" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D50" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E50" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F50" t="str">
-        <v>01</v>
-      </c>
-      <c r="G50" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H50" t="str">
-        <v>04</v>
-      </c>
-      <c r="I50" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J50" t="str">
-        <v>2</v>
-      </c>
-      <c r="K50" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L50" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M50" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N50" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O50" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P50" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q50" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R50" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S50" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T50" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U50" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V50" t="str">
-        <v>16.10/06.0/000034/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W50" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X50" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y50" t="str">
-        <v/>
-      </c>
-      <c r="Z50" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA50" t="str">
-        <v>Pembayaran Belanja Perjalanan Dinas Biasa, Melaksanakan Koordinasi dan Konsultasi Administrasi kependudukan  ke Dirjen  Kependudukan dan Pencatatan Sipil Kemendagri di Jakarta, tanggal 19 s.d 21 Februari 2025 an. Ramdoni, S.IP Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD Ta. 2025</v>
-      </c>
-      <c r="AB50" t="str">
-        <v>1.590.000,00</v>
-      </c>
-      <c r="AC50" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD50" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE50" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF50" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG50" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH50" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI50" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ50" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK50" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL50" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM50" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN50" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO50" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP50" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ50" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR50" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS50" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT50" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>50</v>
-      </c>
-      <c r="B51" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="C51" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="D51" t="str">
-        <v>2.12.0.00.0.00.01.0000</v>
-      </c>
-      <c r="E51" t="str">
-        <v>Dinas Kependudukan dan Pencatatan Sipil</v>
-      </c>
-      <c r="F51" t="str">
-        <v>01</v>
-      </c>
-      <c r="G51" t="str">
-        <v>PELAYANAN UMUM</v>
-      </c>
-      <c r="H51" t="str">
-        <v>04</v>
-      </c>
-      <c r="I51" t="str">
-        <v>Lembaga Eksekutif dan Legislatif, Keuangan dan Fiskal, serta Urusan Luar Negeri</v>
-      </c>
-      <c r="J51" t="str">
-        <v>2</v>
-      </c>
-      <c r="K51" t="str">
-        <v>URUSAN PEMERINTAHAN WAJIB YANG TIDAK BERKAITAN DENGAN PELAYANAN DASAR</v>
-      </c>
-      <c r="L51" t="str">
-        <v>2.12</v>
-      </c>
-      <c r="M51" t="str">
-        <v>URUSAN PEMERINTAHAN BIDANG ADMINISTRASI KEPENDUDUKAN DAN PENCATATAN SIPIL</v>
-      </c>
-      <c r="N51" t="str">
-        <v>2.12.01</v>
-      </c>
-      <c r="O51" t="str">
-        <v>PROGRAM PENUNJANG URUSAN PEMERINTAHAN DAERAH KABUPATEN/KOTA</v>
-      </c>
-      <c r="P51" t="str">
-        <v>2.12.01.2.06</v>
-      </c>
-      <c r="Q51" t="str">
-        <v>Administrasi Umum Perangkat Daerah</v>
-      </c>
-      <c r="R51" t="str">
-        <v>2.12.01.2.06.0009</v>
-      </c>
-      <c r="S51" t="str">
-        <v>Penyelenggaraan Rapat Koordinasi dan Konsultasi SKPD</v>
-      </c>
-      <c r="T51" t="str">
-        <v>5.1.02.04.01.0001</v>
-      </c>
-      <c r="U51" t="str">
-        <v>Belanja Perjalanan Dinas Biasa</v>
-      </c>
-      <c r="V51" t="str">
-        <v>16.10/06.0/000035/UP/2.12.0.00.0.00.01.0000/M/3/2025</v>
-      </c>
-      <c r="W51" t="str">
-        <v>TBP</v>
-      </c>
-      <c r="X51" t="str">
-        <v>UP</v>
-      </c>
-      <c r="Y51" t="str">
-        <v/>
-      </c>
-      <c r="Z51" t="str">
-        <v>18 Februari 2025</v>
-      </c>
-      <c r="AA51" t="str">
-        <v>Pembayaran Belanja Perjalanan Dinas Biasa, Melaksanakan Koordinasi dan Konsultasi Administrasi kependudukan  ke Dirjen  Kependudukan dan Pencatatan Sipil Kemendagri di Jakarta, tanggal 19 s.d 21 Februari 2025 an. Zaidan, S.Sos.,M.Si Kegiatan Penyelenggaraan Rapat Koordinasi Dan Konsultasi SKPD Ta. 2025</v>
-      </c>
-      <c r="AB51" t="str">
-        <v>6.383.775,00</v>
-      </c>
-      <c r="AC51" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD51" t="str">
-        <v>198212202006042006</v>
-      </c>
-      <c r="AE51" t="str">
-        <v>Nasiratunnaisyah, S.Sos</v>
-      </c>
-      <c r="AF51" t="str">
-        <v>14 Maret 2025</v>
-      </c>
-      <c r="AG51" t="str">
-        <v>16.10/01.0/000001/2.12.0.00.0.00.01.0000/M/1/2025</v>
-      </c>
-      <c r="AH51" t="str">
-        <v>Semester 1</v>
-      </c>
-      <c r="AI51" t="str">
-        <v>83.000.000,00</v>
-      </c>
-      <c r="AJ51" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AK51" t="str">
-        <v>Penetapan APBD</v>
-      </c>
-      <c r="AL51" t="str">
-        <v>Murni</v>
-      </c>
-      <c r="AM51" t="str">
-        <v>16.10/02.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AN51" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AO51" t="str">
-        <v>16.10/03.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AP51" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AQ51" t="str">
-        <v>16.10/04.0/000005/UP/2.12.0.00.0.00.01.0000/M/2/2025</v>
-      </c>
-      <c r="AR51" t="str">
-        <v>3 Februari 2025</v>
-      </c>
-      <c r="AS51" t="str">
-        <v>4 Februari 2025</v>
-      </c>
-      <c r="AT51" t="str">
-        <v>84.700.000,00</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B52" t="str">
-        <v/>
-      </c>
-      <c r="C52" t="str">
-        <v/>
-      </c>
-      <c r="D52" t="str">
-        <v/>
-      </c>
-      <c r="E52" t="str">
-        <v/>
-      </c>
-      <c r="F52" t="str">
-        <v/>
-      </c>
-      <c r="G52" t="str">
-        <v/>
-      </c>
-      <c r="H52" t="str">
-        <v/>
-      </c>
-      <c r="I52" t="str">
-        <v/>
-      </c>
-      <c r="J52" t="str">
-        <v/>
-      </c>
-      <c r="K52" t="str">
-        <v/>
-      </c>
-      <c r="L52" t="str">
-        <v/>
-      </c>
-      <c r="M52" t="str">
-        <v/>
-      </c>
-      <c r="N52" t="str">
-        <v/>
-      </c>
-      <c r="O52" t="str">
-        <v/>
-      </c>
-      <c r="P52" t="str">
-        <v/>
-      </c>
-      <c r="Q52" t="str">
-        <v/>
-      </c>
-      <c r="R52" t="str">
-        <v/>
-      </c>
-      <c r="S52" t="str">
-        <v/>
-      </c>
-      <c r="T52" t="str">
-        <v/>
-      </c>
-      <c r="U52" t="str">
-        <v/>
-      </c>
-      <c r="V52" t="str">
-        <v/>
-      </c>
-      <c r="W52" t="str">
-        <v/>
-      </c>
-      <c r="X52" t="str">
-        <v/>
-      </c>
-      <c r="Y52" t="str">
-        <v/>
-      </c>
-      <c r="Z52" t="str">
-        <v/>
-      </c>
-      <c r="AA52" t="str">
-        <v/>
-      </c>
-      <c r="AB52" t="str">
-        <v>222.185.976,00</v>
-      </c>
-      <c r="AC52" t="str">
-        <v>0,00</v>
-      </c>
-      <c r="AD52" t="str">
-        <v/>
-      </c>
-      <c r="AE52" t="str">
-        <v/>
-      </c>
-      <c r="AF52" t="str">
-        <v/>
-      </c>
-      <c r="AG52" t="str">
-        <v/>
-      </c>
-      <c r="AH52" t="str">
-        <v/>
-      </c>
-      <c r="AI52" t="str">
-        <v>3.559.817.476,00</v>
-      </c>
-      <c r="AJ52" t="str">
-        <v/>
-      </c>
-      <c r="AK52" t="str">
-        <v/>
-      </c>
-      <c r="AL52" t="str">
-        <v/>
-      </c>
-      <c r="AM52" t="str">
-        <v/>
-      </c>
-      <c r="AN52" t="str">
-        <v/>
-      </c>
-      <c r="AO52" t="str">
-        <v/>
-      </c>
-      <c r="AP52" t="str">
-        <v/>
-      </c>
-      <c r="AQ52" t="str">
-        <v/>
-      </c>
-      <c r="AR52" t="str">
-        <v/>
-      </c>
-      <c r="AS52" t="str">
-        <v/>
-      </c>
-      <c r="AT52" t="str">
-        <v>4.311.829.286,00</v>
+        <v>138.027.428.083,00</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A52:W52"/>
+    <mergeCell ref="A38:W38"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AT52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AT38"/>
   </ignoredErrors>
 </worksheet>
 </file>